--- a/WebService/Data/PriceList.xlsx
+++ b/WebService/Data/PriceList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -42,6 +42,9 @@
     <t>хз3</t>
   </si>
   <si>
+    <t>2,50</t>
+  </si>
+  <si>
     <t>877d51d2-a908-453b-a033-0b8d9707c147</t>
   </si>
   <si>
@@ -51,10 +54,16 @@
     <t>игра</t>
   </si>
   <si>
+    <t>2,60</t>
+  </si>
+  <si>
     <t>b8a8f59e-b449-42b1-820f-e1f453b44bf0</t>
   </si>
   <si>
     <t>молоко3</t>
+  </si>
+  <si>
+    <t>2,40</t>
   </si>
 </sst>
 </file>
@@ -90,34 +99,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="0" fillId="0" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -406,9 +403,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.23672103881836" customWidth="1"/>
+    <col min="2" max="2" width="10.89121150970459" customWidth="1"/>
+    <col min="3" max="3" width="12.884142875671387" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -422,7 +419,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -436,36 +433,36 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
-        <v>2.5</v>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.6</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4">
-        <v>2.4</v>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/WebService/Data/PriceList.xlsx
+++ b/WebService/Data/PriceList.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="PriceList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>Id</t>
   </si>
@@ -33,45 +33,80 @@
     <t>Price</t>
   </si>
   <si>
+    <t>dea29528-56f1-4a7f-8b56-7b8181f17631</t>
+  </si>
+  <si>
+    <t>пшеничный</t>
+  </si>
+  <si>
+    <t>хлебозавод5</t>
+  </si>
+  <si>
+    <t>2,40</t>
+  </si>
+  <si>
+    <t>5b6b9f87-e03d-4c54-b70b-1b5ed93741e8</t>
+  </si>
+  <si>
+    <t>дарницкий</t>
+  </si>
+  <si>
+    <t>хлебозавод</t>
+  </si>
+  <si>
     <t>25012e7d-690f-4267-b11f-721a4fdd5b72</t>
   </si>
   <si>
-    <t>дарницкий</t>
-  </si>
-  <si>
     <t>хз3</t>
   </si>
   <si>
     <t>2,50</t>
   </si>
   <si>
-    <t>877d51d2-a908-453b-a033-0b8d9707c147</t>
+    <t>363cf529-fd05-45e6-a7a4-b975283442e4</t>
+  </si>
+  <si>
+    <t>молоко25</t>
+  </si>
+  <si>
+    <t>игра</t>
+  </si>
+  <si>
+    <t>2,65</t>
+  </si>
+  <si>
+    <t>282c56e0-0aee-4a5c-b968-8a20e3cabe51</t>
+  </si>
+  <si>
+    <t>молоко3</t>
+  </si>
+  <si>
+    <t>66d19dfc-4832-4de8-bc08-aaf3cf5a061c</t>
   </si>
   <si>
     <t>молоко2</t>
   </si>
   <si>
-    <t>игра</t>
-  </si>
-  <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>b8a8f59e-b449-42b1-820f-e1f453b44bf0</t>
-  </si>
-  <si>
-    <t>молоко3</t>
-  </si>
-  <si>
-    <t>2,40</t>
+    <t>2,87</t>
+  </si>
+  <si>
+    <t>9cbcc0fb-d1c0-47e1-8049-4e8f925d6d4a</t>
+  </si>
+  <si>
+    <t>хлеб бородинский</t>
+  </si>
+  <si>
+    <t>пекарня 2</t>
+  </si>
+  <si>
+    <t>3,60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -99,20 +134,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -394,22 +437,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.23672103881836" customWidth="1"/>
-    <col min="2" max="2" width="10.89121150970459" customWidth="1"/>
-    <col min="3" max="3" width="12.884142875671387" customWidth="1"/>
+    <col min="1" max="1" width="38" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -423,7 +466,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -437,7 +480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -447,26 +490,81 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/WebService/Data/PriceList.xlsx
+++ b/WebService/Data/PriceList.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="PriceList" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,9 @@
     <t>хлебозавод</t>
   </si>
   <si>
+    <t>2,43</t>
+  </si>
+  <si>
     <t>25012e7d-690f-4267-b11f-721a4fdd5b72</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
   </si>
   <si>
     <t>молоко3</t>
+  </si>
+  <si>
+    <t>2,66</t>
   </si>
   <si>
     <t>66d19dfc-4832-4de8-bc08-aaf3cf5a061c</t>
@@ -106,7 +112,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -134,28 +141,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -437,7 +436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -446,13 +445,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.944122314453125" customWidth="1"/>
+    <col min="2" max="2" width="17.775419235229492" customWidth="1"/>
+    <col min="3" max="3" width="12.884142875671387" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -466,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -480,7 +479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -490,81 +489,82 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/WebService/Data/PriceList.xlsx
+++ b/WebService/Data/PriceList.xlsx
@@ -33,6 +33,57 @@
     <t>Price</t>
   </si>
   <si>
+    <t>5b6b9f87-e03d-4c54-b70b-1b5ed93741e8</t>
+  </si>
+  <si>
+    <t>дарницкий</t>
+  </si>
+  <si>
+    <t>хлебозавод</t>
+  </si>
+  <si>
+    <t>2,43</t>
+  </si>
+  <si>
+    <t>25012e7d-690f-4267-b11f-721a4fdd5b72</t>
+  </si>
+  <si>
+    <t>хз3</t>
+  </si>
+  <si>
+    <t>2,50</t>
+  </si>
+  <si>
+    <t>66d19dfc-4832-4de8-bc08-aaf3cf5a061c</t>
+  </si>
+  <si>
+    <t>молоко2</t>
+  </si>
+  <si>
+    <t>игра</t>
+  </si>
+  <si>
+    <t>2,87</t>
+  </si>
+  <si>
+    <t>282c56e0-0aee-4a5c-b968-8a20e3cabe51</t>
+  </si>
+  <si>
+    <t>молоко3</t>
+  </si>
+  <si>
+    <t>2,66</t>
+  </si>
+  <si>
+    <t>363cf529-fd05-45e6-a7a4-b975283442e4</t>
+  </si>
+  <si>
+    <t>молоко25</t>
+  </si>
+  <si>
+    <t>2,65</t>
+  </si>
+  <si>
     <t>dea29528-56f1-4a7f-8b56-7b8181f17631</t>
   </si>
   <si>
@@ -43,57 +94,6 @@
   </si>
   <si>
     <t>2,40</t>
-  </si>
-  <si>
-    <t>5b6b9f87-e03d-4c54-b70b-1b5ed93741e8</t>
-  </si>
-  <si>
-    <t>дарницкий</t>
-  </si>
-  <si>
-    <t>хлебозавод</t>
-  </si>
-  <si>
-    <t>2,43</t>
-  </si>
-  <si>
-    <t>25012e7d-690f-4267-b11f-721a4fdd5b72</t>
-  </si>
-  <si>
-    <t>хз3</t>
-  </si>
-  <si>
-    <t>2,50</t>
-  </si>
-  <si>
-    <t>363cf529-fd05-45e6-a7a4-b975283442e4</t>
-  </si>
-  <si>
-    <t>молоко25</t>
-  </si>
-  <si>
-    <t>игра</t>
-  </si>
-  <si>
-    <t>2,65</t>
-  </si>
-  <si>
-    <t>282c56e0-0aee-4a5c-b968-8a20e3cabe51</t>
-  </si>
-  <si>
-    <t>молоко3</t>
-  </si>
-  <si>
-    <t>2,66</t>
-  </si>
-  <si>
-    <t>66d19dfc-4832-4de8-bc08-aaf3cf5a061c</t>
-  </si>
-  <si>
-    <t>молоко2</t>
-  </si>
-  <si>
-    <t>2,87</t>
   </si>
   <si>
     <t>9cbcc0fb-d1c0-47e1-8049-4e8f925d6d4a</t>
@@ -484,21 +484,21 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -515,35 +515,35 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>

--- a/WebService/Data/PriceList.xlsx
+++ b/WebService/Data/PriceList.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -33,6 +33,18 @@
     <t>Price</t>
   </si>
   <si>
+    <t>dea29528-56f1-4a7f-8b56-7b8181f17631</t>
+  </si>
+  <si>
+    <t>пшеничный</t>
+  </si>
+  <si>
+    <t>хлебозавод5</t>
+  </si>
+  <si>
+    <t>2,40</t>
+  </si>
+  <si>
     <t>5b6b9f87-e03d-4c54-b70b-1b5ed93741e8</t>
   </si>
   <si>
@@ -54,48 +66,36 @@
     <t>2,50</t>
   </si>
   <si>
+    <t>363cf529-fd05-45e6-a7a4-b975283442e4</t>
+  </si>
+  <si>
+    <t>молоко25</t>
+  </si>
+  <si>
+    <t>игра</t>
+  </si>
+  <si>
+    <t>2,65</t>
+  </si>
+  <si>
+    <t>282c56e0-0aee-4a5c-b968-8a20e3cabe51</t>
+  </si>
+  <si>
+    <t>молоко3</t>
+  </si>
+  <si>
+    <t>2,66</t>
+  </si>
+  <si>
     <t>66d19dfc-4832-4de8-bc08-aaf3cf5a061c</t>
   </si>
   <si>
     <t>молоко2</t>
   </si>
   <si>
-    <t>игра</t>
-  </si>
-  <si>
     <t>2,87</t>
   </si>
   <si>
-    <t>282c56e0-0aee-4a5c-b968-8a20e3cabe51</t>
-  </si>
-  <si>
-    <t>молоко3</t>
-  </si>
-  <si>
-    <t>2,66</t>
-  </si>
-  <si>
-    <t>363cf529-fd05-45e6-a7a4-b975283442e4</t>
-  </si>
-  <si>
-    <t>молоко25</t>
-  </si>
-  <si>
-    <t>2,65</t>
-  </si>
-  <si>
-    <t>dea29528-56f1-4a7f-8b56-7b8181f17631</t>
-  </si>
-  <si>
-    <t>пшеничный</t>
-  </si>
-  <si>
-    <t>хлебозавод5</t>
-  </si>
-  <si>
-    <t>2,40</t>
-  </si>
-  <si>
     <t>9cbcc0fb-d1c0-47e1-8049-4e8f925d6d4a</t>
   </si>
   <si>
@@ -106,6 +106,18 @@
   </si>
   <si>
     <t>3,60</t>
+  </si>
+  <si>
+    <t>8c758fcc-2675-4b8b-be43-c494c7501cb8</t>
+  </si>
+  <si>
+    <t>селедка</t>
+  </si>
+  <si>
+    <t>балтика</t>
+  </si>
+  <si>
+    <t>10,00</t>
   </si>
 </sst>
 </file>
@@ -437,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac xr">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -484,21 +496,21 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -515,35 +527,35 @@
         <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
@@ -561,6 +573,20 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
